--- a/backend/media/update/19feb2.xlsx
+++ b/backend/media/update/19feb2.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,156 +488,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>begin_group</t>
+          <t>file</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>this_is_rating</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>field-list</t>
-        </is>
-      </c>
+          <t>this_is_file</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>This is file</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Items cannot be selected more than once</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>select_one QoakeBA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>this_is_rating_header</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>THis is rating</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Items cannot be selected more than once</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>select_one QoakeBA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>how_are_you</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>How are you?</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Items cannot be selected more than once</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>select_one QoakeBA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>how_is_your_day</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>How is your day??</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Items cannot be selected more than once</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>${how_is_your_day} != ${how_are_you}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -668,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,91 +571,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>QoakeBA</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>option_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QoakeBA</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>option_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QoakeBA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>option_3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QoakeBA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>option_4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>QoakeBA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>option_5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
